--- a/output/dropouttable2_1.xlsx
+++ b/output/dropouttable2_1.xlsx
@@ -801,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>201.479749814538</v>
+        <v>114.743930263614</v>
       </c>
       <c r="C2" t="n">
-        <v>7.63874747875695</v>
+        <v>5.67800703304237</v>
       </c>
       <c r="D2" t="n">
-        <v>26.3760191542979</v>
+        <v>20.2084868151586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000992199219214964</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000650339694138832</v>
       </c>
     </row>
     <row r="3">
@@ -818,16 +818,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0255736766319013</v>
+        <v>-0.0273452376726295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0119221508782882</v>
+        <v>0.0108144395536587</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.1450556106008</v>
+        <v>-2.52858574288098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0319751564341143</v>
+        <v>0.0114686752302979</v>
       </c>
     </row>
     <row r="4">
@@ -835,16 +835,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000794698981212357</v>
+        <v>0.00668241780099353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0108970754834317</v>
+        <v>0.00923679289876585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0729277302355706</v>
+        <v>0.72345649342061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.941865252077095</v>
+        <v>0.46941762833498</v>
       </c>
     </row>
     <row r="5">
@@ -852,16 +852,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0190496861450902</v>
+        <v>-0.0160895849148595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0117982922259125</v>
+        <v>0.0099298971145442</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.61461385938988</v>
+        <v>-1.62031738388238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.106429490596651</v>
+        <v>0.105197943797234</v>
       </c>
     </row>
     <row r="6">
@@ -869,16 +869,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.101095002283188</v>
+        <v>-0.0576996615394105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00383465478400834</v>
+        <v>0.00285612421607058</v>
       </c>
       <c r="D6" t="n">
-        <v>-26.3635210931593</v>
+        <v>-20.2020840741979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000013478115696502</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000736373583533001</v>
       </c>
     </row>
     <row r="7">
@@ -886,16 +886,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.395378352112518</v>
+        <v>0.368404072658675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0228032253217284</v>
+        <v>0.0289623332619109</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3387030358279</v>
+        <v>12.7201102662254</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000286371867988396</v>
+        <v>0.00000000000000000000000000000000000092323013931558</v>
       </c>
     </row>
     <row r="8">
@@ -903,16 +903,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0860023219744849</v>
+        <v>0.0924779730671047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05134380916237</v>
+        <v>0.0569243608583068</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.6750280779229</v>
+        <v>1.62457639704196</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0939635564429422</v>
+        <v>0.10428666080104</v>
       </c>
     </row>
     <row r="9">
@@ -920,16 +920,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.194782569447643</v>
+        <v>0.0815309171838867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0558122001718555</v>
+        <v>0.0675849835461601</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.48996400156012</v>
+        <v>1.20634663065652</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000485404977106117</v>
+        <v>0.227714482296026</v>
       </c>
     </row>
     <row r="10">
@@ -937,16 +937,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.173508544510755</v>
+        <v>-0.0103035358528906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0380161602021137</v>
+        <v>0.0480454806972643</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.56407337269974</v>
+        <v>-0.214453798845585</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00000508374744532901</v>
+        <v>0.830197883192843</v>
       </c>
     </row>
     <row r="11">
@@ -954,16 +954,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.196170765772488</v>
+        <v>0.0827451432359667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0854173075337712</v>
+        <v>0.0776866749278</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.29661612425477</v>
+        <v>1.06511371883103</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0216635971796367</v>
+        <v>0.286852061365496</v>
       </c>
     </row>
     <row r="12">
@@ -971,16 +971,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.158620079903144</v>
+        <v>0.111257279215914</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0835797577405677</v>
+        <v>0.0795663625129484</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.89782890248979</v>
+        <v>1.39829540652696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0577506783010755</v>
+        <v>0.162057644474943</v>
       </c>
     </row>
     <row r="13">
@@ -988,16 +988,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.119807520004557</v>
+        <v>0.121717409315624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0834761060221854</v>
+        <v>0.0772752705503524</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.43523129807607</v>
+        <v>1.57511463174125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.151256040583172</v>
+        <v>0.115263925246056</v>
       </c>
     </row>
     <row r="14">
@@ -1005,16 +1005,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.171815855535519</v>
+        <v>0.119360444755316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0825272880965639</v>
+        <v>0.0758947174612108</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.08192780228619</v>
+        <v>1.57271083875265</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0373773250664952</v>
+        <v>0.115819729631653</v>
       </c>
     </row>
     <row r="15">
@@ -1022,16 +1022,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.24914386434124</v>
+        <v>0.00536706540802726</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0857823008162996</v>
+        <v>0.079831229015666</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.90437376906892</v>
+        <v>0.0672301488302783</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00368886312788002</v>
+        <v>0.946399926076791</v>
       </c>
     </row>
     <row r="16">
@@ -1039,16 +1039,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.173322005000583</v>
+        <v>0.138523868163897</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0909912580033517</v>
+        <v>0.0783077104670096</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.90482040587018</v>
+        <v>1.76896843666827</v>
       </c>
       <c r="E16" t="n">
-        <v>0.056835350877235</v>
+        <v>0.0769318387056793</v>
       </c>
     </row>
     <row r="17">
@@ -1056,16 +1056,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.164430814098666</v>
+        <v>0.0792474062968553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0837428437071937</v>
+        <v>0.0762308932081694</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.96352078362178</v>
+        <v>1.03957074306408</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0496165156699168</v>
+        <v>0.298566340231929</v>
       </c>
     </row>
     <row r="18">
@@ -1073,16 +1073,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.271042643002107</v>
+        <v>0.095471380638472</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0809511858338128</v>
+        <v>0.07631468668709</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.34822325590806</v>
+        <v>1.25102237567887</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000816660753781396</v>
+        <v>0.210957713232627</v>
       </c>
     </row>
     <row r="19">
@@ -1090,16 +1090,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.298293632394789</v>
+        <v>0.0705773486932697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0869583053788863</v>
+        <v>0.0813104667340932</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.43030641058486</v>
+        <v>0.867998322086582</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000605614296522194</v>
+        <v>0.385417597668429</v>
       </c>
     </row>
     <row r="20">
@@ -1107,16 +1107,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.265107006583149</v>
+        <v>0.128278762316686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0876796606158731</v>
+        <v>0.0856893076903575</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.02358613982996</v>
+        <v>1.49702180790429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00250503570562514</v>
+        <v>0.134421443312959</v>
       </c>
     </row>
     <row r="21">
@@ -1124,16 +1124,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.212369136616807</v>
+        <v>0.0570782805290242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07160200682466</v>
+        <v>0.0694335174369172</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.96596626316438</v>
+        <v>0.822056589324915</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00302528132182174</v>
+        <v>0.411065717796436</v>
       </c>
     </row>
     <row r="22">
@@ -1141,16 +1141,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.169440901250426</v>
+        <v>0.127995728024139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0721716340684832</v>
+        <v>0.0728635172166007</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.34774927071272</v>
+        <v>1.75665041866765</v>
       </c>
       <c r="E22" t="n">
-        <v>0.018908824780646</v>
+        <v>0.0790102461584674</v>
       </c>
     </row>
     <row r="23">
@@ -1158,16 +1158,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.220461508802223</v>
+        <v>0.0645636295804679</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0479075095773674</v>
+        <v>0.0618584396406463</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.60181526335016</v>
+        <v>1.04373194596464</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000424571787036312</v>
+        <v>0.296636493297965</v>
       </c>
     </row>
     <row r="24">
@@ -1175,16 +1175,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.198998523216296</v>
+        <v>0.0248887370062868</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0720204362814966</v>
+        <v>0.0684716853672701</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.76308411182761</v>
+        <v>0.363489475580862</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00573746369898181</v>
+        <v>0.716247516764369</v>
       </c>
     </row>
     <row r="25">
@@ -1192,16 +1192,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.239358883066451</v>
+        <v>0.0496401232820769</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0464442194215355</v>
+        <v>0.0573249187474691</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.15368513127521</v>
+        <v>0.865943194804241</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000000260854302254092</v>
+        <v>0.386543601860301</v>
       </c>
     </row>
     <row r="26">
@@ -1209,16 +1209,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.146871919070126</v>
+        <v>0.186997574821198</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0683165015963473</v>
+        <v>0.0839835914467227</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.14987471018246</v>
+        <v>2.22659654820579</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315917641651077</v>
+        <v>0.0259980531133593</v>
       </c>
     </row>
     <row r="27">
@@ -1226,16 +1226,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.179256602392808</v>
+        <v>0.0902877818444409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0696427193578016</v>
+        <v>0.0936197158164403</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.57394604986411</v>
+        <v>0.964409911492017</v>
       </c>
       <c r="E27" t="n">
-        <v>0.010070485747</v>
+        <v>0.334865474511152</v>
       </c>
     </row>
     <row r="28">
@@ -1243,16 +1243,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.249802830289744</v>
+        <v>0.0650399280146412</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0601882258943824</v>
+        <v>0.071053692859135</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.15036041647241</v>
+        <v>0.915363092296748</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0000335017999790808</v>
+        <v>0.360024726846225</v>
       </c>
     </row>
     <row r="29">
@@ -1260,16 +1260,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.174878443204308</v>
+        <v>0.0610221182774183</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0677913152954103</v>
+        <v>0.0738741253197975</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.5796585070263</v>
+        <v>0.826028301699093</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00990555995717514</v>
+        <v>0.408809179499402</v>
       </c>
     </row>
     <row r="30">
@@ -1277,16 +1277,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.154458768901761</v>
+        <v>0.127126220405893</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431882020164396</v>
+        <v>0.072479499642047</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.57641118847611</v>
+        <v>1.75396106531817</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000350176334026903</v>
+        <v>0.0794700402187132</v>
       </c>
     </row>
     <row r="31">
@@ -1294,16 +1294,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.255428801688349</v>
+        <v>0.0316154862101252</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0482225405432139</v>
+        <v>0.0641454262165864</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.29687566874355</v>
+        <v>0.49287202650078</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000000120592070612519</v>
+        <v>0.622114624152781</v>
       </c>
     </row>
     <row r="32">
@@ -1311,16 +1311,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.187471067188395</v>
+        <v>0.13084021309131</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0466807397231407</v>
+        <v>0.0627274538620424</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.01602605914707</v>
+        <v>2.0858524463478</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0000596700139136661</v>
+        <v>0.0370191172832616</v>
       </c>
     </row>
     <row r="33">
@@ -1328,16 +1328,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.227917966084027</v>
+        <v>0.0670590301151659</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04700235566698</v>
+        <v>0.0698962445342265</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.84907538887766</v>
+        <v>0.959408199425202</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00000126122011220032</v>
+        <v>0.337378031184759</v>
       </c>
     </row>
     <row r="34">
@@ -1345,16 +1345,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.240841442636902</v>
+        <v>0.00688962842178286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0833531309921638</v>
+        <v>0.0611278701167398</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.88941086879561</v>
+        <v>0.112708465199676</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00386888515489493</v>
+        <v>0.910264116883401</v>
       </c>
     </row>
     <row r="35">
@@ -1362,16 +1362,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.211974596182178</v>
+        <v>0.0944257286039494</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0598057133131116</v>
+        <v>0.0662115020961854</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.54438705667449</v>
+        <v>1.42612273720625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000395528968244592</v>
+        <v>0.15386640663036</v>
       </c>
     </row>
     <row r="36">
@@ -1379,16 +1379,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00346288782853112</v>
+        <v>-0.0133035728213398</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0585484089816893</v>
+        <v>0.0516386851807254</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0591457204176824</v>
+        <v>-0.257628031673927</v>
       </c>
       <c r="E36" t="n">
-        <v>0.952837359383259</v>
+        <v>0.796699680883397</v>
       </c>
     </row>
     <row r="37">
@@ -1396,16 +1396,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0638126645194886</v>
+        <v>0.0187727513773657</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0507176052734517</v>
+        <v>0.0529774816185897</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25819553536554</v>
+        <v>0.354353412125547</v>
       </c>
       <c r="E37" t="n">
-        <v>0.208353776513049</v>
+        <v>0.72308205991387</v>
       </c>
     </row>
     <row r="38">
@@ -1413,16 +1413,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0492699460153077</v>
+        <v>-0.00873740955244505</v>
       </c>
       <c r="C38" t="n">
-        <v>0.044867835787349</v>
+        <v>0.0412985723624195</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09811282738981</v>
+        <v>-0.211566866664762</v>
       </c>
       <c r="E38" t="n">
-        <v>0.272184679859453</v>
+        <v>0.832449586204973</v>
       </c>
     </row>
     <row r="39">
@@ -1430,16 +1430,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0211490209200437</v>
+        <v>0.0372352966714225</v>
       </c>
       <c r="C39" t="n">
-        <v>0.052967844253788</v>
+        <v>0.0485614329024343</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.399280378841003</v>
+        <v>0.766766844508742</v>
       </c>
       <c r="E39" t="n">
-        <v>0.689696122309312</v>
+        <v>0.443239571928471</v>
       </c>
     </row>
     <row r="40">
@@ -1447,16 +1447,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>0.057181223759346</v>
+        <v>-0.0171496919504806</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0510551118011937</v>
+        <v>0.0601618622798414</v>
       </c>
       <c r="D40" t="n">
-        <v>1.11999017810414</v>
+        <v>-0.285059193658422</v>
       </c>
       <c r="E40" t="n">
-        <v>0.262747914411013</v>
+        <v>0.775605125602867</v>
       </c>
     </row>
     <row r="41">
@@ -1464,16 +1464,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00735983675582304</v>
+        <v>-0.0127659768921298</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0557173058331133</v>
+        <v>0.0617449221428791</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.132092473707676</v>
+        <v>-0.206753469744266</v>
       </c>
       <c r="E41" t="n">
-        <v>0.89491410954866</v>
+        <v>0.836206912733814</v>
       </c>
     </row>
     <row r="42">
@@ -1481,16 +1481,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0661870229796275</v>
+        <v>-0.0208034840832394</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0537657806758141</v>
+        <v>0.0656636870285721</v>
       </c>
       <c r="D42" t="n">
-        <v>1.23102505250893</v>
+        <v>-0.316818701852474</v>
       </c>
       <c r="E42" t="n">
-        <v>0.21834574917306</v>
+        <v>0.751388267882635</v>
       </c>
     </row>
     <row r="43">
@@ -1498,16 +1498,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.00112921863177224</v>
+        <v>0.0167899041150133</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0608966962344811</v>
+        <v>0.0519068374633764</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0185431838112238</v>
+        <v>0.323462282341121</v>
       </c>
       <c r="E43" t="n">
-        <v>0.985205939924555</v>
+        <v>0.746352424377165</v>
       </c>
     </row>
     <row r="44">
@@ -1515,16 +1515,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0244194973009592</v>
+        <v>0.0337158849763372</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0546060078247227</v>
+        <v>0.0501464370998323</v>
       </c>
       <c r="D44" t="n">
-        <v>0.447194333988711</v>
+        <v>0.672348564050825</v>
       </c>
       <c r="E44" t="n">
-        <v>0.654745542391819</v>
+        <v>0.501378485398861</v>
       </c>
     </row>
     <row r="45">
@@ -1532,16 +1532,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0522192997444419</v>
+        <v>0.0176160095754579</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0612511080747183</v>
+        <v>0.0513810056850073</v>
       </c>
       <c r="D45" t="n">
-        <v>0.852544572430285</v>
+        <v>0.342850618445527</v>
       </c>
       <c r="E45" t="n">
-        <v>0.393934658236585</v>
+        <v>0.731718574630944</v>
       </c>
     </row>
     <row r="46">
@@ -1549,16 +1549,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0290478171302445</v>
+        <v>0.0155605124893371</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0573268925668873</v>
+        <v>0.048114768687033</v>
       </c>
       <c r="D46" t="n">
-        <v>0.506704895897721</v>
+        <v>0.323404079744245</v>
       </c>
       <c r="E46" t="n">
-        <v>0.612374341153657</v>
+        <v>0.746396495377195</v>
       </c>
     </row>
     <row r="47">
@@ -1566,16 +1566,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00225770231467399</v>
+        <v>0.0506089554276445</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0566435608685304</v>
+        <v>0.0480559909677901</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0398580576513209</v>
+        <v>1.05312479065442</v>
       </c>
       <c r="E47" t="n">
-        <v>0.968207176101957</v>
+        <v>0.292311101134688</v>
       </c>
     </row>
     <row r="48">
@@ -1583,16 +1583,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>0.049451147039222</v>
+        <v>0.0477052235843982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0562079499159253</v>
+        <v>0.0501759450136256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879789195535329</v>
+        <v>0.950758846125241</v>
       </c>
       <c r="E48" t="n">
-        <v>0.378997071873318</v>
+        <v>0.341751459561553</v>
       </c>
     </row>
     <row r="49">
@@ -1600,16 +1600,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0365843499688562</v>
+        <v>0.0640849655770751</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0570333761874371</v>
+        <v>0.0533979953058287</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6414550990042</v>
+        <v>1.20013804282424</v>
       </c>
       <c r="E49" t="n">
-        <v>0.521243423102683</v>
+        <v>0.230116234390424</v>
       </c>
     </row>
     <row r="50">
@@ -1617,16 +1617,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0971622711116446</v>
+        <v>-0.0455690159840774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0577463343781222</v>
+        <v>0.0558425584442019</v>
       </c>
       <c r="D50" t="n">
-        <v>1.68257036845711</v>
+        <v>-0.816026651601397</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0924930721068767</v>
+        <v>0.414505745443699</v>
       </c>
     </row>
     <row r="51">
@@ -1634,16 +1634,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0826233873012873</v>
+        <v>0.0129661046873131</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0825656213641803</v>
+        <v>0.0760611165147821</v>
       </c>
       <c r="D51" t="n">
-        <v>1.00069963667871</v>
+        <v>0.170469555029385</v>
       </c>
       <c r="E51" t="n">
-        <v>0.316999018742359</v>
+        <v>0.864644575359796</v>
       </c>
     </row>
     <row r="52">
@@ -1651,16 +1651,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>0.000217863090187925</v>
+        <v>-0.00476044146641698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.076638920942301</v>
+        <v>0.0754958377147787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0028427212636768</v>
+        <v>-0.0630556810880331</v>
       </c>
       <c r="E52" t="n">
-        <v>0.997731902820281</v>
+        <v>0.949723517457892</v>
       </c>
     </row>
     <row r="53">
@@ -1668,16 +1668,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0203346198600035</v>
+        <v>0.0270269476094076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0767910580564632</v>
+        <v>0.0717359651546136</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264804527697116</v>
+        <v>0.376755892963257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.791166129043719</v>
+        <v>0.706363597847367</v>
       </c>
     </row>
     <row r="54">
@@ -1685,16 +1685,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0078104616845229</v>
+        <v>-0.0266910269235704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0806475954182587</v>
+        <v>0.0746295423585003</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0968468017430139</v>
+        <v>-0.357646932837319</v>
       </c>
       <c r="E54" t="n">
-        <v>0.922850218367517</v>
+        <v>0.720615648759098</v>
       </c>
     </row>
     <row r="55">
@@ -1702,16 +1702,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.00842872864616648</v>
+        <v>-0.0174994682188879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0751493984494574</v>
+        <v>0.0723009461139031</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.112159628953455</v>
+        <v>-0.242036503800644</v>
       </c>
       <c r="E55" t="n">
-        <v>0.910699346549333</v>
+        <v>0.808757202740985</v>
       </c>
     </row>
     <row r="56">
@@ -1719,16 +1719,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0280560741766349</v>
+        <v>0.0132433936419553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0780635778751194</v>
+        <v>0.0742445992268866</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359400311135073</v>
+        <v>0.178375178529611</v>
       </c>
       <c r="E56" t="n">
-        <v>0.719304096331394</v>
+        <v>0.85843221785304</v>
       </c>
     </row>
     <row r="57">
@@ -1736,16 +1736,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0515644730971804</v>
+        <v>-0.0207330653727313</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0901620462487484</v>
+        <v>0.0749348685359678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.57190886013078</v>
+        <v>-0.27668114694536</v>
       </c>
       <c r="E57" t="n">
-        <v>0.567398042703209</v>
+        <v>0.782031084338351</v>
       </c>
     </row>
     <row r="58">
@@ -1753,16 +1753,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0174583144750917</v>
+        <v>-0.0644273230496794</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0846770510070773</v>
+        <v>0.0753764288163207</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.206175277332609</v>
+        <v>-0.854740985496641</v>
       </c>
       <c r="E58" t="n">
-        <v>0.836658674822852</v>
+        <v>0.392716523326241</v>
       </c>
     </row>
     <row r="59">
@@ -1770,16 +1770,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0501295388124205</v>
+        <v>-0.0162797453564507</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0840498580599614</v>
+        <v>0.074899123097231</v>
       </c>
       <c r="D59" t="n">
-        <v>0.596426216171096</v>
+        <v>-0.217355620242937</v>
       </c>
       <c r="E59" t="n">
-        <v>0.550905572051518</v>
+        <v>0.827935971730713</v>
       </c>
     </row>
     <row r="60">
@@ -1787,16 +1787,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21365872078435</v>
+        <v>0.0484585640008308</v>
       </c>
       <c r="C60" t="n">
-        <v>0.105287924489529</v>
+        <v>0.10255715647064</v>
       </c>
       <c r="D60" t="n">
-        <v>2.0292803929818</v>
+        <v>0.472502998995525</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0424591872494095</v>
+        <v>0.636578864130732</v>
       </c>
     </row>
     <row r="61">
@@ -1804,16 +1804,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0000476518687229523</v>
+        <v>0.0000167579156115593</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0000309783281506273</v>
+        <v>0.0000270027875517156</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.5382324214287</v>
+        <v>0.620599468831304</v>
       </c>
       <c r="E61" t="n">
-        <v>0.124027044864934</v>
+        <v>0.534878362643469</v>
       </c>
     </row>
     <row r="62">
@@ -1821,16 +1821,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0435314748969982</v>
+        <v>0.00201832335099702</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0422041407823311</v>
+        <v>0.0451814453185686</v>
       </c>
       <c r="D62" t="n">
-        <v>1.03145032904503</v>
+        <v>0.0446715092172479</v>
       </c>
       <c r="E62" t="n">
-        <v>0.302357480372337</v>
+        <v>0.964370100288723</v>
       </c>
     </row>
     <row r="63">
@@ -1838,16 +1838,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0287919796461552</v>
+        <v>-0.0194396844438227</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0392735382222865</v>
+        <v>0.0545547323200266</v>
       </c>
       <c r="D63" t="n">
-        <v>0.733113973159075</v>
+        <v>-0.356333605117637</v>
       </c>
       <c r="E63" t="n">
-        <v>0.463508063348107</v>
+        <v>0.721598810629173</v>
       </c>
     </row>
     <row r="64">
@@ -1855,16 +1855,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0873301950071713</v>
+        <v>0.0291725241311737</v>
       </c>
       <c r="C64" t="n">
-        <v>0.035952219436234</v>
+        <v>0.0551168003949668</v>
       </c>
       <c r="D64" t="n">
-        <v>2.42906269422567</v>
+        <v>0.529285515888504</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0151574111681607</v>
+        <v>0.596620006233283</v>
       </c>
     </row>
     <row r="65">
@@ -1872,16 +1872,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="n">
-        <v>0.067025972195062</v>
+        <v>0.000365165321912884</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0439800268526713</v>
+        <v>0.0470346250354508</v>
       </c>
       <c r="D65" t="n">
-        <v>1.52400935132651</v>
+        <v>0.00776375535337324</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127541604783848</v>
+        <v>0.993805647848373</v>
       </c>
     </row>
     <row r="66">
@@ -1889,16 +1889,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.00301788622398123</v>
+        <v>-0.0207646538565957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.037902792694077</v>
+        <v>0.0554753823429849</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.079621737858193</v>
+        <v>-0.374303934098463</v>
       </c>
       <c r="E66" t="n">
-        <v>0.936539880761746</v>
+        <v>0.708186719933675</v>
       </c>
     </row>
     <row r="67">
@@ -1906,16 +1906,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0150448952361539</v>
+        <v>0.0324288193425338</v>
       </c>
       <c r="C67" t="n">
-        <v>0.031413777146776</v>
+        <v>0.0683539415308397</v>
       </c>
       <c r="D67" t="n">
-        <v>0.478926655838262</v>
+        <v>0.474425009242557</v>
       </c>
       <c r="E67" t="n">
-        <v>0.632002473391574</v>
+        <v>0.635207976288197</v>
       </c>
     </row>
     <row r="68">
@@ -1923,16 +1923,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0562984988538073</v>
+        <v>0.0708222111116109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0454115484817004</v>
+        <v>0.0602461472561683</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23973968596323</v>
+        <v>1.1755475551071</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215104103451582</v>
+        <v>0.239805748947626</v>
       </c>
     </row>
     <row r="69">
@@ -1940,16 +1940,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426275726313031</v>
+        <v>0.0955756420806591</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0583891480387062</v>
+        <v>0.0541160791082115</v>
       </c>
       <c r="D69" t="n">
-        <v>0.730059849529665</v>
+        <v>1.76612281701977</v>
       </c>
       <c r="E69" t="n">
-        <v>0.465372654416094</v>
+        <v>0.0774079749640124</v>
       </c>
     </row>
     <row r="70">
@@ -1957,16 +1957,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0324905159681763</v>
+        <v>0.0332134730789955</v>
       </c>
       <c r="C70" t="n">
-        <v>0.071246984431625</v>
+        <v>0.0539747771443608</v>
       </c>
       <c r="D70" t="n">
-        <v>0.45602654241959</v>
+        <v>0.615351740872645</v>
       </c>
       <c r="E70" t="n">
-        <v>0.648381924284601</v>
+        <v>0.538337477838573</v>
       </c>
     </row>
     <row r="71">
@@ -1974,16 +1974,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.0546984942977644</v>
+        <v>0.140084071144844</v>
       </c>
       <c r="C71" t="n">
-        <v>0.055607369103129</v>
+        <v>0.0573467194634988</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.983655497103648</v>
+        <v>2.44275648991582</v>
       </c>
       <c r="E71" t="n">
-        <v>0.325311440784917</v>
+        <v>0.014594006357437</v>
       </c>
     </row>
     <row r="72">
@@ -1991,16 +1991,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0455750875986628</v>
+        <v>-0.0197653923152661</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0355949312488856</v>
+        <v>0.0443073926401695</v>
       </c>
       <c r="D72" t="n">
-        <v>1.28038139138391</v>
+        <v>-0.446096940882652</v>
       </c>
       <c r="E72" t="n">
-        <v>0.200444120857889</v>
+        <v>0.655537584549241</v>
       </c>
     </row>
     <row r="73">
@@ -2008,16 +2008,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="n">
-        <v>0.130190233764074</v>
+        <v>0.0799702091116776</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0872184755731229</v>
+        <v>0.0628292650317221</v>
       </c>
       <c r="D73" t="n">
-        <v>1.4926910027787</v>
+        <v>1.27281783530813</v>
       </c>
       <c r="E73" t="n">
-        <v>0.135553235629351</v>
+        <v>0.203114436902489</v>
       </c>
     </row>
     <row r="74">
@@ -2025,16 +2025,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="n">
-        <v>0.012168322725812</v>
+        <v>0.150498971460343</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0890324394571845</v>
+        <v>0.0585387198482764</v>
       </c>
       <c r="D74" t="n">
-        <v>0.136672911581443</v>
+        <v>2.5709303491845</v>
       </c>
       <c r="E74" t="n">
-        <v>0.891292407171964</v>
+        <v>0.0101579444533184</v>
       </c>
     </row>
     <row r="75">
@@ -2042,16 +2042,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0491696858137665</v>
+        <v>0.149569679332045</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0538724020460507</v>
+        <v>0.0644929164446393</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.912706394115036</v>
+        <v>2.31916445367199</v>
       </c>
       <c r="E75" t="n">
-        <v>0.361421493125379</v>
+        <v>0.0204076294947556</v>
       </c>
     </row>
     <row r="76">
@@ -2059,16 +2059,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0691917864346836</v>
+        <v>0.0722950129078758</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0420297278359967</v>
+        <v>0.0447703390967296</v>
       </c>
       <c r="D76" t="n">
-        <v>1.64625825569643</v>
+        <v>1.61479708142655</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0997456089094755</v>
+        <v>0.106388492241648</v>
       </c>
     </row>
     <row r="77">
@@ -2076,16 +2076,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0708297104558955</v>
+        <v>0.0661495134253811</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0534392825058137</v>
+        <v>0.0650126547572755</v>
       </c>
       <c r="D77" t="n">
-        <v>1.32542405389125</v>
+        <v>1.01748672888917</v>
       </c>
       <c r="E77" t="n">
-        <v>0.185064277001653</v>
+        <v>0.308948351283891</v>
       </c>
     </row>
     <row r="78">
@@ -2093,16 +2093,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0653761323855418</v>
+        <v>0.0495570504711602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0635308348415389</v>
+        <v>0.0568088089268585</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02904569959777</v>
+        <v>0.872347993336123</v>
       </c>
       <c r="E78" t="n">
-        <v>0.303485928549522</v>
+        <v>0.38304103306504</v>
       </c>
     </row>
     <row r="79">
@@ -2110,16 +2110,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00360229305394084</v>
+        <v>0.0588213905201777</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0707590040504956</v>
+        <v>0.0563347220659954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0509093238702194</v>
+        <v>1.04414095539993</v>
       </c>
       <c r="E79" t="n">
-        <v>0.959398908562981</v>
+        <v>0.296447257888767</v>
       </c>
     </row>
     <row r="80">
@@ -2127,16 +2127,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.0848611986949125</v>
+        <v>0.064352924244685</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0757598518391357</v>
+        <v>0.0665703619093852</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.12013416915205</v>
+        <v>0.966690316815183</v>
       </c>
       <c r="E80" t="n">
-        <v>0.26268656189122</v>
+        <v>0.333723949835806</v>
       </c>
     </row>
     <row r="81">
@@ -2144,16 +2144,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0226585267461471</v>
+        <v>0.100377167074635</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0703116546917418</v>
+        <v>0.0774133754352635</v>
       </c>
       <c r="D81" t="n">
-        <v>0.322258476855451</v>
+        <v>1.296638552579</v>
       </c>
       <c r="E81" t="n">
-        <v>0.747264392246755</v>
+        <v>0.194787679208346</v>
       </c>
     </row>
     <row r="82">
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="n">
-        <v>0.014350258583148</v>
+        <v>0.133399174962429</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0647185543766193</v>
+        <v>0.0596720311539616</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221733299227282</v>
+        <v>2.23553937050076</v>
       </c>
       <c r="E82" t="n">
-        <v>0.824526550425584</v>
+        <v>0.025405543655139</v>
       </c>
     </row>
     <row r="83">
@@ -2178,16 +2178,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.0401149242035115</v>
+        <v>0.103719432798318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0714751454594834</v>
+        <v>0.0866670733832732</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.561242987973367</v>
+        <v>1.19675706989243</v>
       </c>
       <c r="E83" t="n">
-        <v>0.574645912127436</v>
+        <v>0.231431693270919</v>
       </c>
     </row>
     <row r="84">
@@ -2195,16 +2195,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0181321494980253</v>
+        <v>0.0755620827938079</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0613646088964707</v>
+        <v>0.0533719796124057</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295482197704809</v>
+        <v>1.41576316528916</v>
       </c>
       <c r="E84" t="n">
-        <v>0.767632384388219</v>
+        <v>0.15687826983658</v>
       </c>
     </row>
     <row r="85">
@@ -2212,16 +2212,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0333859710589958</v>
+        <v>0.117740621316967</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0619613384801904</v>
+        <v>0.0766973521554796</v>
       </c>
       <c r="D85" t="n">
-        <v>0.538819397351618</v>
+        <v>1.5351328045626</v>
       </c>
       <c r="E85" t="n">
-        <v>0.590024840450645</v>
+        <v>0.124785150610303</v>
       </c>
     </row>
     <row r="86">
@@ -2229,16 +2229,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0614340139547251</v>
+        <v>0.154505506387863</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0622553592208214</v>
+        <v>0.0624623898470615</v>
       </c>
       <c r="D86" t="n">
-        <v>0.986806834361312</v>
+        <v>2.47357660771815</v>
       </c>
       <c r="E86" t="n">
-        <v>0.323763942495459</v>
+        <v>0.0133944973413685</v>
       </c>
     </row>
     <row r="87">
@@ -2246,16 +2246,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0682933372677031</v>
+        <v>0.0613328827321033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0575087467103908</v>
+        <v>0.0592964925234488</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18752957026907</v>
+        <v>1.0343425069847</v>
       </c>
       <c r="E87" t="n">
-        <v>0.235050223744421</v>
+        <v>0.30100290624016</v>
       </c>
     </row>
     <row r="88">
@@ -2263,16 +2263,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="n">
-        <v>0.119016522569856</v>
+        <v>0.166394384514991</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0592683998618166</v>
+        <v>0.06427392667404</v>
       </c>
       <c r="D88" t="n">
-        <v>2.00809407453789</v>
+        <v>2.58883178802575</v>
       </c>
       <c r="E88" t="n">
-        <v>0.044663201273507</v>
+        <v>0.00964517252454322</v>
       </c>
     </row>
     <row r="89">
@@ -2280,16 +2280,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0663513559454831</v>
+        <v>0.0948263031224734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05252380788747</v>
+        <v>0.0572374375097969</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26326248256101</v>
+        <v>1.65671817691424</v>
       </c>
       <c r="E89" t="n">
-        <v>0.206527675794734</v>
+        <v>0.0976101231865149</v>
       </c>
     </row>
     <row r="90">
@@ -2297,16 +2297,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="n">
-        <v>0.000341881747494701</v>
+        <v>0.0849763121003463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0826770461537731</v>
+        <v>0.065811759308365</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00413514709825055</v>
+        <v>1.29120256004986</v>
       </c>
       <c r="E90" t="n">
-        <v>0.996700731270255</v>
+        <v>0.196665468067601</v>
       </c>
     </row>
     <row r="91">
@@ -2314,16 +2314,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114970793606137</v>
+        <v>0.119935508867608</v>
       </c>
       <c r="C91" t="n">
-        <v>0.073288708643086</v>
+        <v>0.0775194449771954</v>
       </c>
       <c r="D91" t="n">
-        <v>1.56873815536909</v>
+        <v>1.54716676445362</v>
       </c>
       <c r="E91" t="n">
-        <v>0.116744213183298</v>
+        <v>0.12185698742631</v>
       </c>
     </row>
     <row r="92">
@@ -2331,16 +2331,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0781137252340644</v>
+        <v>0.127237450285512</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0756944928538955</v>
+        <v>0.0574078628241677</v>
       </c>
       <c r="D92" t="n">
-        <v>1.03196048072927</v>
+        <v>2.21637671263295</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302118435056281</v>
+        <v>0.0266897664477705</v>
       </c>
     </row>
     <row r="93">
@@ -2348,16 +2348,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0446759825402561</v>
+        <v>0.00980607824890091</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0679002457643774</v>
+        <v>0.0681843413937613</v>
       </c>
       <c r="D93" t="n">
-        <v>0.657964960764465</v>
+        <v>0.143817158726683</v>
       </c>
       <c r="E93" t="n">
-        <v>0.510577520231069</v>
+        <v>0.885647962040632</v>
       </c>
     </row>
     <row r="94">
@@ -2365,16 +2365,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0565295603800457</v>
+        <v>0.137736887196667</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0605560757519916</v>
+        <v>0.0565313582398839</v>
       </c>
       <c r="D94" t="n">
-        <v>0.933507656796708</v>
+        <v>2.43646874027327</v>
       </c>
       <c r="E94" t="n">
-        <v>0.350583029096135</v>
+        <v>0.0148500439178495</v>
       </c>
     </row>
     <row r="95">
@@ -2382,16 +2382,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="n">
-        <v>0.123936194704742</v>
+        <v>0.0334879212463044</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0594379880809723</v>
+        <v>0.0621780178608126</v>
       </c>
       <c r="D95" t="n">
-        <v>2.08513441834377</v>
+        <v>0.538581357181057</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0370852865489068</v>
+        <v>0.590188615457909</v>
       </c>
     </row>
     <row r="96">
@@ -2399,16 +2399,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0549119744243376</v>
+        <v>0.149974457739372</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0555957781782705</v>
+        <v>0.0551402852097264</v>
       </c>
       <c r="D96" t="n">
-        <v>0.987700437401195</v>
+        <v>2.71987091051386</v>
       </c>
       <c r="E96" t="n">
-        <v>0.323326003447786</v>
+        <v>0.00654284433667462</v>
       </c>
     </row>
     <row r="97">
@@ -2416,16 +2416,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0666785650067781</v>
+        <v>0.169456960077476</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0625475883030462</v>
+        <v>0.0584802483729187</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06604533948962</v>
+        <v>2.89767852894327</v>
       </c>
       <c r="E97" t="n">
-        <v>0.286431820018475</v>
+        <v>0.00376811509340126</v>
       </c>
     </row>
     <row r="98">
@@ -2433,16 +2433,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="n">
-        <v>0.107541611044492</v>
+        <v>0.085744832564093</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0680404230754813</v>
+        <v>0.0610976571741143</v>
       </c>
       <c r="D98" t="n">
-        <v>1.58055470826791</v>
+        <v>1.4034062275046</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114015123378938</v>
+        <v>0.160529048826679</v>
       </c>
     </row>
     <row r="99">
@@ -2450,16 +2450,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0106358935082041</v>
+        <v>0.18194501679693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0644301174147073</v>
+        <v>0.0740026264202894</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.165076425978641</v>
+        <v>2.45862918112654</v>
       </c>
       <c r="E99" t="n">
-        <v>0.868887545144696</v>
+        <v>0.013964908390326</v>
       </c>
     </row>
     <row r="100">
@@ -2467,16 +2467,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="n">
-        <v>0.161363067705481</v>
+        <v>0.148831748602591</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0621992862653455</v>
+        <v>0.0625666549949876</v>
       </c>
       <c r="D100" t="n">
-        <v>2.59429130773459</v>
+        <v>2.37877106606569</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00949401962397071</v>
+        <v>0.0173904817228421</v>
       </c>
     </row>
     <row r="101">
@@ -2484,16 +2484,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="n">
-        <v>0.116155412909252</v>
+        <v>0.0988221998529259</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0732924273106059</v>
+        <v>0.0635562069802733</v>
       </c>
       <c r="D101" t="n">
-        <v>1.58482147708108</v>
+        <v>1.5548788159054</v>
       </c>
       <c r="E101" t="n">
-        <v>0.113042128857861</v>
+        <v>0.120008884152635</v>
       </c>
     </row>
     <row r="102">
@@ -2501,16 +2501,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0873238138336132</v>
+        <v>0.107842370826988</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0616969586426722</v>
+        <v>0.0591240903102629</v>
       </c>
       <c r="D102" t="n">
-        <v>1.41536658783074</v>
+        <v>1.82400050911682</v>
       </c>
       <c r="E102" t="n">
-        <v>0.156995733998471</v>
+        <v>0.0681839981544327</v>
       </c>
     </row>
     <row r="103">
@@ -2518,16 +2518,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="n">
-        <v>0.188448117990211</v>
+        <v>0.154504138219978</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0692102871220467</v>
+        <v>0.0694574209500609</v>
       </c>
       <c r="D103" t="n">
-        <v>2.72283392868892</v>
+        <v>2.22444392703646</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00648496428981426</v>
+        <v>0.0261424471703018</v>
       </c>
     </row>
     <row r="104">
@@ -2535,16 +2535,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="n">
-        <v>0.116200571266139</v>
+        <v>0.177384310471008</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0695349912605877</v>
+        <v>0.0688835460745357</v>
       </c>
       <c r="D104" t="n">
-        <v>1.67110930999716</v>
+        <v>2.57513325866047</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0947349489875105</v>
+        <v>0.0100354222885357</v>
       </c>
     </row>
     <row r="105">
@@ -2552,16 +2552,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="n">
-        <v>0.14790778122284</v>
+        <v>0.10484559428008</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0653676958951743</v>
+        <v>0.0599494479819724</v>
       </c>
       <c r="D105" t="n">
-        <v>2.26270452395981</v>
+        <v>1.74890007847292</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0236777039038078</v>
+        <v>0.0803412075567868</v>
       </c>
     </row>
     <row r="106">
@@ -2569,16 +2569,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0137651345026536</v>
+        <v>0.075012380047831</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0449451332829166</v>
+        <v>0.057960288377512</v>
       </c>
       <c r="D106" t="n">
-        <v>0.306265294976568</v>
+        <v>1.29420301636965</v>
       </c>
       <c r="E106" t="n">
-        <v>0.759409764253004</v>
+        <v>0.195627368742398</v>
       </c>
     </row>
     <row r="107">
@@ -2586,16 +2586,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0467121548229547</v>
+        <v>-0.056684228405829</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0385248650176075</v>
+        <v>0.038358490642054</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21251962340699</v>
+        <v>-1.47774918817279</v>
       </c>
       <c r="E107" t="n">
-        <v>0.225345447625396</v>
+        <v>0.139508710519741</v>
       </c>
     </row>
     <row r="108">
@@ -2603,16 +2603,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0170538161483623</v>
+        <v>-0.000839296602945113</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0449420698166356</v>
+        <v>0.0435949964429966</v>
       </c>
       <c r="D108" t="n">
-        <v>0.37946218805547</v>
+        <v>-0.0192521314697789</v>
       </c>
       <c r="E108" t="n">
-        <v>0.704353654560498</v>
+        <v>0.984640382465506</v>
       </c>
     </row>
     <row r="109">
@@ -2620,16 +2620,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0968834906666119</v>
+        <v>-0.064635469123895</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0445512877640165</v>
+        <v>0.0509071933427076</v>
       </c>
       <c r="D109" t="n">
-        <v>2.17465073467222</v>
+        <v>-1.26967261166351</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0296823253830368</v>
+        <v>0.204232970151266</v>
       </c>
     </row>
     <row r="110">
@@ -2637,16 +2637,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0721672416210023</v>
+        <v>0.0435542452556936</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0751581697391586</v>
+        <v>0.0414442292494006</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9602048835338</v>
+        <v>1.05091217871602</v>
       </c>
       <c r="E110" t="n">
-        <v>0.336977973347416</v>
+        <v>0.293326171136659</v>
       </c>
     </row>
     <row r="111">
@@ -2654,16 +2654,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.0557699611051189</v>
+        <v>0.0387730305370699</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0678949139594356</v>
+        <v>0.0659272074404789</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.821415888949196</v>
+        <v>0.588118806216316</v>
       </c>
       <c r="E111" t="n">
-        <v>0.411431232347915</v>
+        <v>0.556466799582058</v>
       </c>
     </row>
     <row r="112">
@@ -2671,16 +2671,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.0966132400286375</v>
+        <v>-0.0261287265239534</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0590002258649788</v>
+        <v>0.0625663275827791</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.63750627412403</v>
+        <v>-0.417616432567238</v>
       </c>
       <c r="E112" t="n">
-        <v>0.10155978221329</v>
+        <v>0.676237199445116</v>
       </c>
     </row>
     <row r="113">
@@ -2688,16 +2688,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0100122500247584</v>
+        <v>0.0691412658980392</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0653344793689047</v>
+        <v>0.0718862122160387</v>
       </c>
       <c r="D113" t="n">
-        <v>0.153246036724732</v>
+        <v>0.961815399179051</v>
       </c>
       <c r="E113" t="n">
-        <v>0.878207699127152</v>
+        <v>0.336167291143573</v>
       </c>
     </row>
     <row r="114">
@@ -2705,16 +2705,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0831588701155348</v>
+        <v>-0.00539378908991806</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0603860046513313</v>
+        <v>0.0583784938791435</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37712157967221</v>
+        <v>-0.0923934266115944</v>
       </c>
       <c r="E114" t="n">
-        <v>0.16850900295816</v>
+        <v>0.926387447489888</v>
       </c>
     </row>
     <row r="115">
@@ -2722,16 +2722,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.00154046610449368</v>
+        <v>0.115172061540178</v>
       </c>
       <c r="C115" t="n">
-        <v>0.078094898282391</v>
+        <v>0.0678297825673614</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0197255664374305</v>
+        <v>1.69795710941283</v>
       </c>
       <c r="E115" t="n">
-        <v>0.984262734112805</v>
+        <v>0.089549235834127</v>
       </c>
     </row>
     <row r="116">
@@ -2739,16 +2739,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0550647807591218</v>
+        <v>-0.0354355056038846</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0586451711416089</v>
+        <v>0.0620920066358568</v>
       </c>
       <c r="D116" t="n">
-        <v>0.938948249058024</v>
+        <v>-0.570693516344202</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3477825801186</v>
+        <v>0.568221171849322</v>
       </c>
     </row>
     <row r="117">
@@ -2756,16 +2756,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="n">
-        <v>0.102203521855133</v>
+        <v>0.0774597535466938</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0665599142460173</v>
+        <v>0.0707223066028951</v>
       </c>
       <c r="D117" t="n">
-        <v>1.53551162156506</v>
+        <v>1.09526622175418</v>
       </c>
       <c r="E117" t="n">
-        <v>0.124693450399952</v>
+        <v>0.27342832073433</v>
       </c>
     </row>
     <row r="118">
@@ -2773,16 +2773,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00057893244570061</v>
+        <v>-0.0499671245210189</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0646080761032252</v>
+        <v>0.059331693357465</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00896068232670545</v>
+        <v>-0.842165825606462</v>
       </c>
       <c r="E118" t="n">
-        <v>0.992850704730063</v>
+        <v>0.399716747028346</v>
       </c>
     </row>
     <row r="119">
@@ -2790,16 +2790,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="n">
-        <v>0.000635292617778082</v>
+        <v>-0.0402296678860478</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0605771732904199</v>
+        <v>0.0590704222794978</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0104873268802483</v>
+        <v>-0.681045882754942</v>
       </c>
       <c r="E119" t="n">
-        <v>0.991632710247249</v>
+        <v>0.49585937661082</v>
       </c>
     </row>
     <row r="120">
@@ -2807,16 +2807,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0214164748034467</v>
+        <v>-0.00772641958885669</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0679550519331804</v>
+        <v>0.0578819905439556</v>
       </c>
       <c r="D120" t="n">
-        <v>0.315156477615607</v>
+        <v>-0.13348572701537</v>
       </c>
       <c r="E120" t="n">
-        <v>0.752650174879757</v>
+        <v>0.893812133137086</v>
       </c>
     </row>
     <row r="121">
@@ -2824,16 +2824,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.0334426919189034</v>
+        <v>0.0046535007086049</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0715130278490012</v>
+        <v>0.0638553287555256</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.467644748443839</v>
+        <v>0.0728756831935067</v>
       </c>
       <c r="E121" t="n">
-        <v>0.640050011735925</v>
+        <v>0.941906608137167</v>
       </c>
     </row>
     <row r="122">
@@ -2841,16 +2841,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.0103897027946332</v>
+        <v>-0.034001020243532</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0614852341945386</v>
+        <v>0.0601941693909222</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.16897882769317</v>
+        <v>-0.564855709241826</v>
       </c>
       <c r="E122" t="n">
-        <v>0.86581710254706</v>
+        <v>0.572185504709273</v>
       </c>
     </row>
     <row r="123">
@@ -2858,16 +2858,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0139174411351175</v>
+        <v>0.0160769614879563</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0604774526883901</v>
+        <v>0.0647407982107769</v>
       </c>
       <c r="D123" t="n">
-        <v>0.230126113393483</v>
+        <v>0.2483281320631</v>
       </c>
       <c r="E123" t="n">
-        <v>0.817999017887524</v>
+        <v>0.803886004919531</v>
       </c>
     </row>
     <row r="124">
@@ -2875,16 +2875,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0804033738815292</v>
+        <v>-0.0674413675666202</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0627918797582676</v>
+        <v>0.0628222745004778</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.28047407070884</v>
+        <v>-1.07352635833183</v>
       </c>
       <c r="E124" t="n">
-        <v>0.200411545302859</v>
+        <v>0.283062809561472</v>
       </c>
     </row>
     <row r="125">
@@ -2892,16 +2892,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.0350409857208871</v>
+        <v>0.00858936190951808</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0629409718471095</v>
+        <v>0.0654729493505013</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.556727751296969</v>
+        <v>0.131189475878595</v>
       </c>
       <c r="E125" t="n">
-        <v>0.577727332988291</v>
+        <v>0.895628252327165</v>
       </c>
     </row>
     <row r="126">
@@ -2909,16 +2909,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.0415638327890703</v>
+        <v>0.012789374886374</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0611235032184077</v>
+        <v>0.0616014083528631</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.679997555777417</v>
+        <v>0.207614975506962</v>
       </c>
       <c r="E126" t="n">
-        <v>0.496523545447554</v>
+        <v>0.835534146017222</v>
       </c>
     </row>
     <row r="127">
@@ -2926,16 +2926,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385213574667742</v>
+        <v>0.0716056365764056</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0683829275991519</v>
+        <v>0.0596374749870352</v>
       </c>
       <c r="D127" t="n">
-        <v>0.563318343031163</v>
+        <v>1.20068189660901</v>
       </c>
       <c r="E127" t="n">
-        <v>0.57323220089922</v>
+        <v>0.229905130874161</v>
       </c>
     </row>
     <row r="128">
@@ -2943,16 +2943,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0439630029717817</v>
+        <v>0.13185841793217</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0719019406331589</v>
+        <v>0.0777991374492706</v>
       </c>
       <c r="D128" t="n">
-        <v>0.611429991800629</v>
+        <v>1.69485706725411</v>
       </c>
       <c r="E128" t="n">
-        <v>0.540930436753523</v>
+        <v>0.0901359412194509</v>
       </c>
     </row>
     <row r="129">
@@ -2960,16 +2960,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.0381568812601839</v>
+        <v>-0.0103547992412329</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0669968474835585</v>
+        <v>0.0636967326585934</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.569532488368918</v>
+        <v>-0.162564056412962</v>
       </c>
       <c r="E129" t="n">
-        <v>0.569009081616273</v>
+        <v>0.870865213204192</v>
       </c>
     </row>
     <row r="130">
@@ -2977,16 +2977,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="n">
-        <v>0.147911603530838</v>
+        <v>0.0694999396729942</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0609194213913015</v>
+        <v>0.0632955104764662</v>
       </c>
       <c r="D130" t="n">
-        <v>2.42798766227214</v>
+        <v>1.09802321128028</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0152023840357628</v>
+        <v>0.272222716733048</v>
       </c>
     </row>
     <row r="131">
@@ -2994,16 +2994,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0732935630733612</v>
+        <v>0.103716342130975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0699987440705911</v>
+        <v>0.0779399273520917</v>
       </c>
       <c r="D131" t="n">
-        <v>1.04706968741393</v>
+        <v>1.33072156537225</v>
       </c>
       <c r="E131" t="n">
-        <v>0.29509563251262</v>
+        <v>0.183313196017951</v>
       </c>
     </row>
     <row r="132">
@@ -3011,16 +3011,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0707451849828516</v>
+        <v>0.149533101345632</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0543156061411466</v>
+        <v>0.0680845689284028</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30248357716952</v>
+        <v>2.19628476318738</v>
       </c>
       <c r="E132" t="n">
-        <v>0.192784545573439</v>
+        <v>0.0280961093850698</v>
       </c>
     </row>
     <row r="133">
@@ -3028,16 +3028,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0638197651454318</v>
+        <v>-0.0239064531611237</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0587849037722784</v>
+        <v>0.0577541256958789</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.08564888347283</v>
+        <v>-0.413934985130068</v>
       </c>
       <c r="E133" t="n">
-        <v>0.277663519351337</v>
+        <v>0.678931245485217</v>
       </c>
     </row>
     <row r="134">
@@ -3045,16 +3045,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0670184551498135</v>
+        <v>0.0230373885885327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0623489175107783</v>
+        <v>0.0681684168115415</v>
       </c>
       <c r="D134" t="n">
-        <v>1.07489364411544</v>
+        <v>0.337948124161691</v>
       </c>
       <c r="E134" t="n">
-        <v>0.28245124048394</v>
+        <v>0.735409891732277</v>
       </c>
     </row>
     <row r="135">
@@ -3062,16 +3062,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0341962946008276</v>
+        <v>-0.00801311307759449</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0806990585334003</v>
+        <v>0.0656912862601109</v>
       </c>
       <c r="D135" t="n">
-        <v>0.423750849418822</v>
+        <v>-0.121981369733967</v>
       </c>
       <c r="E135" t="n">
-        <v>0.671757680570832</v>
+        <v>0.902916402469592</v>
       </c>
     </row>
     <row r="136">
@@ -3079,16 +3079,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.0694038267831915</v>
+        <v>-0.068821967733586</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0622472569625167</v>
+        <v>0.0544422161500352</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.11497004317772</v>
+        <v>-1.26412869644987</v>
       </c>
       <c r="E136" t="n">
-        <v>0.264893110234818</v>
+        <v>0.206215448855946</v>
       </c>
     </row>
     <row r="137">
@@ -3096,16 +3096,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.0122298391029537</v>
+        <v>-0.0646282609110572</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0754739075182303</v>
+        <v>0.0644643399719518</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.16204062443699</v>
+        <v>-1.00254281575173</v>
       </c>
       <c r="E137" t="n">
-        <v>0.871277510200322</v>
+        <v>0.316107523449201</v>
       </c>
     </row>
     <row r="138">
@@ -3113,16 +3113,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0221179548513503</v>
+        <v>-0.00708820113714177</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0676402761611148</v>
+        <v>0.0595069999911805</v>
       </c>
       <c r="D138" t="n">
-        <v>0.326993857900088</v>
+        <v>-0.119115417315481</v>
       </c>
       <c r="E138" t="n">
-        <v>0.743680155599688</v>
+        <v>0.905186483403711</v>
       </c>
     </row>
     <row r="139">
@@ -3130,16 +3130,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0635406666590317</v>
+        <v>0.0516277607543643</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0659914117987697</v>
+        <v>0.0591725470572226</v>
       </c>
       <c r="D139" t="n">
-        <v>0.962862665414536</v>
+        <v>0.872495157330947</v>
       </c>
       <c r="E139" t="n">
-        <v>0.33564238570516</v>
+        <v>0.38296078325382</v>
       </c>
     </row>
     <row r="140">
@@ -3147,16 +3147,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.0694535797500243</v>
+        <v>0.00695830177399763</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0700843304184787</v>
+        <v>0.0645987197434798</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.991000118504548</v>
+        <v>0.10771578448658</v>
       </c>
       <c r="E140" t="n">
-        <v>0.321712235492601</v>
+        <v>0.914223466520834</v>
       </c>
     </row>
     <row r="141">
@@ -3164,16 +3164,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.0392325228129267</v>
+        <v>-0.0207909995920159</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0677028798601633</v>
+        <v>0.0646932132457875</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.579480856559712</v>
+        <v>-0.321378372612674</v>
       </c>
       <c r="E141" t="n">
-        <v>0.562279302918891</v>
+        <v>0.74793087658283</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.187871077184054</v>
+        <v>0.127143454621497</v>
       </c>
     </row>
   </sheetData>
